--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$62</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2503" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="294">
   <si>
     <t>Path</t>
   </si>
@@ -369,7 +369,7 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -700,10 +700,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://ibm.com/fhir/cdm/ValueSet/wh-organization-type</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -758,14 +755,14 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
+    <t>Details of a Technology mediated contact point (phone, fax, email, etc.)</t>
+  </si>
+  <si>
+    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
   </si>
   <si>
     <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
@@ -774,214 +771,49 @@
     <t>Human contact for the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">org-3
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
+    <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-22?</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>Organization.telecom.id</t>
-  </si>
-  <si>
-    <t>Organization.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactPointCountry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {contactpoint-country}
-</t>
-  </si>
-  <si>
-    <t>The country code as defined by the ITU. This extension is used when a system wishes to designate specific parts of a phone number</t>
-  </si>
-  <si>
-    <t>The country code as defined by the ITU. This extension is used when a system wishes to designate specific parts of a phone number (and potentially place constraints on which components must be present and how they're filled in).</t>
-  </si>
-  <si>
-    <t>The ContactPoint.value element SHOULD still be populated even if the extension is present.</t>
-  </si>
-  <si>
-    <t>contactPointExt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {contactpoint-extension}
-</t>
-  </si>
-  <si>
-    <t>The number that may be dialed within a private phone network or after successfully connecting to a private phone network.</t>
-  </si>
-  <si>
-    <t>The number that may be dialed within a private phone network or after successfully connecting to a private phone network. This extension is used when a system wishes to designate specific parts of a phone number (and potentially place constraints on which components must be present and how they're filled in).</t>
-  </si>
-  <si>
-    <t>Organization.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Organization.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Organization.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Organization.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Organization.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>Organization.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -1090,37 +922,17 @@
     <t>Organization.contact.telecom</t>
   </si>
   <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>PID-11</t>
-  </si>
-  <si>
-    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -1285,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1295,7 +1107,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.8046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1304,7 +1116,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.92578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.62109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1318,7 +1130,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.8125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1329,7 +1141,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.20703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -6638,11 +6450,9 @@
       <c r="W48" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="X48" t="s" s="2">
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6675,21 +6485,21 @@
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6715,16 +6525,16 @@
         <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6773,7 +6583,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6788,13 +6598,13 @@
         <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6802,7 +6612,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6828,16 +6638,16 @@
         <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6886,7 +6696,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6904,7 +6714,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6915,7 +6725,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6938,19 +6748,19 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6999,7 +6809,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7008,19 +6818,19 @@
         <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AI51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -7028,7 +6838,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7039,7 +6849,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7051,16 +6861,20 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7108,28 +6922,28 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -7137,18 +6951,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7157,21 +6971,21 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7207,40 +7021,40 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7248,11 +7062,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7261,7 +7073,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7273,18 +7085,20 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7332,7 +7146,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7344,13 +7158,13 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
@@ -7361,11 +7175,9 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7386,17 +7198,15 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7445,25 +7255,25 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7474,18 +7284,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
@@ -7494,18 +7304,20 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7530,13 +7342,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7554,28 +7366,28 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>40</v>
@@ -7583,42 +7395,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
@@ -7673,22 +7485,22 @@
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7696,7 +7508,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7713,25 +7525,23 @@
         <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7756,13 +7566,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>40</v>
@@ -7780,7 +7590,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7795,13 +7605,13 @@
         <v>62</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
@@ -7809,7 +7619,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7829,21 +7639,21 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7891,7 +7701,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7906,10 +7716,10 @@
         <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7920,7 +7730,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7931,7 +7741,7 @@
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
@@ -7940,19 +7750,21 @@
         <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
       </c>
@@ -8000,28 +7812,28 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>40</v>
@@ -8029,7 +7841,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8040,7 +7852,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8052,19 +7864,19 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8113,28 +7925,28 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>301</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>40</v>
@@ -8142,7 +7954,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8153,7 +7965,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8162,20 +7974,20 @@
         <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8224,13 +8036,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8239,1021 +8051,20 @@
         <v>62</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>309</v>
+        <v>124</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM71" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM71">
+  <autoFilter ref="A1:AM62">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9263,7 +8074,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI61">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="328">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -714,10 +717,24 @@
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
+    <t>NPI</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="NPI"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/sid/us-npi</t>
+  </si>
+  <si>
     <t>Tax</t>
-  </si>
-  <si>
-    <t>secondary</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -726,20 +743,6 @@
     &lt;code value="TAX"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>NPI</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
-    &lt;code value="NPI"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/sid/us-npi</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1255,90 +1258,84 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1400,6918 +1397,6918 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AF47" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a organization</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a organization</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1354,40 +1354,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.62109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.8125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.81640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="329">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,231 +271,235 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Organization.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Organization.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Organization.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Organization.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Organization.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Slice based on entry system</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org-1
+</t>
+  </si>
+  <si>
+    <t>XON.10 / XON.3</t>
+  </si>
+  <si>
+    <t>.scopes[Role](classCode=IDENT)</t>
+  </si>
+  <si>
+    <t>./Identifiers</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Organization.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Organization.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Organization.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Organization.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Organization.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Organization.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Organization.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:type}
-</t>
-  </si>
-  <si>
-    <t>Slice based on entry system</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-1
-</t>
-  </si>
-  <si>
-    <t>XON.10 / XON.3</t>
-  </si>
-  <si>
-    <t>.scopes[Role](classCode=IDENT)</t>
-  </si>
-  <si>
-    <t>./Identifiers</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Organization.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2647,13 +2651,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2704,7 +2708,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2722,7 +2726,7 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2733,7 +2737,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2762,7 +2766,7 @@
         <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>133</v>
@@ -2803,10 +2807,10 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>74</v>
@@ -2815,7 +2819,7 @@
         <v>148</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2833,7 +2837,7 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2844,7 +2848,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2870,16 +2874,16 @@
         <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2904,13 +2908,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2928,7 +2932,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2946,7 +2950,7 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2957,7 +2961,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2980,19 +2984,19 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3017,11 +3021,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3039,7 +3043,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3054,10 +3058,10 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3068,7 +3072,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3094,16 +3098,16 @@
         <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3116,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>74</v>
@@ -3152,7 +3156,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3167,13 +3171,13 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3181,7 +3185,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3204,16 +3208,16 @@
         <v>84</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3227,7 +3231,7 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3263,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3278,13 +3282,13 @@
         <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3292,7 +3296,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3315,13 +3319,13 @@
         <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3372,7 +3376,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3387,13 +3391,13 @@
         <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3401,7 +3405,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3424,16 +3428,16 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3483,7 +3487,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3498,13 +3502,13 @@
         <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3515,7 +3519,7 @@
         <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3648,13 +3652,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3705,7 +3709,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3723,7 +3727,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3734,7 +3738,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3763,7 +3767,7 @@
         <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>133</v>
@@ -3804,10 +3808,10 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
@@ -3816,7 +3820,7 @@
         <v>148</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3834,7 +3838,7 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3845,7 +3849,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3871,16 +3875,16 @@
         <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3890,7 +3894,7 @@
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -3905,13 +3909,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3929,7 +3933,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3947,7 +3951,7 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3958,7 +3962,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3981,19 +3985,19 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4003,7 +4007,7 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4018,13 +4022,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4042,7 +4046,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4057,10 +4061,10 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4071,7 +4075,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4097,16 +4101,16 @@
         <v>99</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4119,7 +4123,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4155,7 +4159,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4170,13 +4174,13 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4184,7 +4188,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4207,16 +4211,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4230,7 +4234,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4266,7 +4270,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4281,13 +4285,13 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4295,7 +4299,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4318,13 +4322,13 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4375,7 +4379,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4390,13 +4394,13 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4404,7 +4408,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4427,16 +4431,16 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4486,7 +4490,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4501,13 +4505,13 @@
         <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4518,7 +4522,7 @@
         <v>141</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>74</v>
@@ -4651,13 +4655,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4708,7 +4712,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4726,7 +4730,7 @@
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4737,7 +4741,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4766,7 +4770,7 @@
         <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>133</v>
@@ -4807,10 +4811,10 @@
         <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4823,7 @@
         <v>148</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4837,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4848,7 +4852,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4874,16 +4878,16 @@
         <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -4893,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4908,13 +4912,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -4932,7 +4936,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4950,7 +4954,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4961,7 +4965,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4984,19 +4988,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5006,7 +5010,7 @@
         <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -5021,13 +5025,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5045,7 +5049,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5060,10 +5064,10 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5074,7 +5078,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5100,16 +5104,16 @@
         <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5119,10 +5123,10 @@
         <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>74</v>
@@ -5158,7 +5162,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5173,13 +5177,13 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5187,7 +5191,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5210,16 +5214,16 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5233,7 +5237,7 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>74</v>
@@ -5269,7 +5273,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5284,13 +5288,13 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5298,7 +5302,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5321,13 +5325,13 @@
         <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5378,7 +5382,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5393,13 +5397,13 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5407,7 +5411,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5430,16 +5434,16 @@
         <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5489,7 +5493,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5504,13 +5508,13 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5521,7 +5525,7 @@
         <v>141</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>74</v>
@@ -5654,13 +5658,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5711,7 +5715,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5729,7 +5733,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5740,7 +5744,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5769,7 +5773,7 @@
         <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>133</v>
@@ -5810,10 +5814,10 @@
         <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>74</v>
@@ -5822,7 +5826,7 @@
         <v>148</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5840,7 +5844,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5851,7 +5855,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5877,16 +5881,16 @@
         <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5896,7 +5900,7 @@
         <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>74</v>
@@ -5911,13 +5915,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -5935,7 +5939,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5953,7 +5957,7 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5964,7 +5968,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5987,19 +5991,19 @@
         <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6009,7 +6013,7 @@
         <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>74</v>
@@ -6024,13 +6028,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6048,7 +6052,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6063,10 +6067,10 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6077,7 +6081,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6103,16 +6107,16 @@
         <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6125,7 +6129,7 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>74</v>
@@ -6161,7 +6165,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6176,13 +6180,13 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6190,7 +6194,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6213,16 +6217,16 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6236,7 +6240,7 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>74</v>
@@ -6272,7 +6276,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6287,13 +6291,13 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6301,7 +6305,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6324,13 +6328,13 @@
         <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6381,7 +6385,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6396,13 +6400,13 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6410,7 +6414,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6433,16 +6437,16 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6492,7 +6496,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6507,13 +6511,13 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6521,7 +6525,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6544,70 +6548,70 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Q47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P47" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="Q47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6622,21 +6626,21 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6659,19 +6663,19 @@
         <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6696,11 +6700,11 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6718,7 +6722,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6733,21 +6737,21 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6770,19 +6774,19 @@
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6831,7 +6835,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6846,13 +6850,13 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -6860,7 +6864,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6883,19 +6887,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6944,7 +6948,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6962,7 +6966,7 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6973,7 +6977,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6996,19 +7000,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7057,7 +7061,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7069,16 +7073,16 @@
         <v>95</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7086,7 +7090,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7109,19 +7113,19 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7170,7 +7174,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7182,16 +7186,16 @@
         <v>95</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7199,7 +7203,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7222,17 +7226,17 @@
         <v>84</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7281,7 +7285,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7296,13 +7300,13 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7310,7 +7314,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7333,19 +7337,19 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7394,7 +7398,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7412,7 +7416,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7423,7 +7427,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7446,13 +7450,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7503,7 +7507,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7521,7 +7525,7 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7532,7 +7536,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7561,7 +7565,7 @@
         <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>133</v>
@@ -7614,7 +7618,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7632,7 +7636,7 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7643,11 +7647,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7669,10 +7673,10 @@
         <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>133</v>
@@ -7727,7 +7731,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7756,7 +7760,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7779,17 +7783,17 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7814,13 +7818,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -7838,7 +7842,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7856,7 +7860,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7867,7 +7871,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7890,17 +7894,17 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -7949,7 +7953,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7964,10 +7968,10 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -7978,7 +7982,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8001,17 +8005,17 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8060,7 +8064,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8072,16 +8076,16 @@
         <v>95</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8089,7 +8093,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8112,19 +8116,19 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8173,7 +8177,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8188,13 +8192,13 @@
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8202,7 +8206,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8225,17 +8229,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8284,7 +8288,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8302,7 +8306,7 @@
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-cdm-organization.xlsx
+++ b/StructureDefinition-cdm-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="328">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-organization</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-organization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a organization</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a organization</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -290,7 +286,7 @@
     <t>Organization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -582,7 +578,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -709,7 +705,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://ibm.com/fhir/cdm/CodeSystem/identifier-type"/&gt;
+    &lt;system value="http://linuxforhealth.org/fhir/cdm/CodeSystem/identifier-type"/&gt;
     &lt;code value="SSRI"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -804,7 +800,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/wh-organization-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/organization-type</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -859,7 +855,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
+    <t xml:space="preserve">ContactPoint {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
@@ -891,7 +887,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
+    <t xml:space="preserve">Address {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
@@ -1382,7 +1378,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.81640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.91015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1612,13 +1608,13 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>28</v>
@@ -1629,7 +1625,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1640,28 +1636,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1711,13 +1707,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1740,7 +1736,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1751,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>74</v>
@@ -1763,13 +1759,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1820,25 +1816,25 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>74</v>
@@ -1849,7 +1845,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1860,28 +1856,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1931,19 +1927,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1960,7 +1956,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1971,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1983,16 +1979,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2018,43 +2014,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -2071,18 +2067,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -2094,16 +2090,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2153,25 +2149,25 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -2182,11 +2178,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2205,16 +2201,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2264,7 +2260,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2282,7 +2278,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2293,11 +2289,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2316,16 +2312,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2375,7 +2371,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2387,13 +2383,13 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2404,11 +2400,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2421,25 +2417,25 @@
         <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>74</v>
@@ -2488,7 +2484,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2500,13 +2496,13 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2517,7 +2513,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2525,7 +2521,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2537,20 +2533,20 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2587,19 +2583,19 @@
         <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AE11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2608,27 +2604,27 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2639,7 +2635,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2651,13 +2647,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2708,25 +2704,25 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2737,11 +2733,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2760,16 +2756,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2807,19 +2803,19 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2831,13 +2827,13 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2848,7 +2844,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2859,31 +2855,31 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2908,49 +2904,49 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2961,7 +2957,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2972,31 +2968,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3021,47 +3017,47 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3072,7 +3068,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3080,34 +3076,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3120,64 +3116,64 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3193,31 +3189,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3231,64 +3227,64 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>74</v>
@@ -3296,7 +3292,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3307,25 +3303,25 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3376,28 +3372,28 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3405,7 +3401,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3416,28 +3412,28 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3487,28 +3483,28 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AK19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>74</v>
@@ -3516,10 +3512,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>74</v>
@@ -3529,29 +3525,29 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3600,7 +3596,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3609,27 +3605,27 @@
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3640,7 +3636,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3652,13 +3648,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3709,25 +3705,25 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3738,11 +3734,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3761,16 +3757,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3808,19 +3804,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3832,13 +3828,13 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3849,7 +3845,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3860,31 +3856,31 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3894,7 +3890,7 @@
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -3909,49 +3905,49 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3962,7 +3958,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3970,34 +3966,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4007,29 +4003,29 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4046,25 +4042,25 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4075,7 +4071,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4086,31 +4082,31 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4123,64 +4119,64 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4188,7 +4184,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4199,28 +4195,28 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4234,64 +4230,64 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>74</v>
@@ -4299,7 +4295,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4310,25 +4306,25 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4379,28 +4375,28 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4408,7 +4404,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4419,28 +4415,28 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4490,28 +4486,28 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -4519,10 +4515,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>74</v>
@@ -4532,29 +4528,29 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4603,7 +4599,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4612,27 +4608,27 @@
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AI29" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4643,7 +4639,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4655,13 +4651,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4712,25 +4708,25 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4741,11 +4737,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4764,16 +4760,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4811,19 +4807,19 @@
         <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB31" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB31" t="s" s="2">
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4835,13 +4831,13 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4852,7 +4848,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4863,31 +4859,31 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -4897,7 +4893,7 @@
         <v>74</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>74</v>
@@ -4912,49 +4908,49 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4965,7 +4961,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4973,34 +4969,34 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5010,7 +5006,7 @@
         <v>74</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>74</v>
@@ -5025,14 +5021,14 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5049,25 +5045,25 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5078,7 +5074,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5089,31 +5085,31 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5123,67 +5119,67 @@
         <v>74</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5191,7 +5187,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5202,28 +5198,28 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5237,64 +5233,64 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5302,7 +5298,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5313,25 +5309,25 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5382,28 +5378,28 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5411,7 +5407,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5422,28 +5418,28 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5493,28 +5489,28 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
+      <c r="AK37" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5522,10 +5518,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>74</v>
@@ -5535,29 +5531,29 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5606,7 +5602,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5615,27 +5611,27 @@
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5646,7 +5642,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5658,13 +5654,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5715,25 +5711,25 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5744,11 +5740,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5767,16 +5763,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5814,19 +5810,19 @@
         <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AB40" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AB40" t="s" s="2">
+      <c r="AC40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5838,13 +5834,13 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5855,7 +5851,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5866,31 +5862,31 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5900,7 +5896,7 @@
         <v>74</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>74</v>
@@ -5915,49 +5911,49 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Y41" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5968,7 +5964,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5976,34 +5972,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6013,7 +6009,7 @@
         <v>74</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>74</v>
@@ -6028,14 +6024,14 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6052,25 +6048,25 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6081,7 +6077,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6092,31 +6088,31 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6129,64 +6125,64 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6194,7 +6190,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6205,28 +6201,28 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6240,64 +6236,64 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>74</v>
@@ -6305,7 +6301,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6316,25 +6312,25 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6385,28 +6381,28 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6414,7 +6410,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6425,28 +6421,28 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6496,28 +6492,28 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6525,7 +6521,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6536,111 +6532,111 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="O47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P47" t="s" s="2">
+      <c r="Q47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Q47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6660,22 +6656,22 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6700,11 +6696,11 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6722,7 +6718,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6734,24 +6730,24 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6759,34 +6755,34 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6835,28 +6831,28 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -6864,7 +6860,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6887,19 +6883,19 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -6948,7 +6944,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6960,13 +6956,13 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6977,7 +6973,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7000,19 +6996,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7061,7 +7057,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7070,19 +7066,19 @@
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7090,7 +7086,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7113,19 +7109,19 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7174,7 +7170,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7183,19 +7179,19 @@
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7203,7 +7199,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7214,29 +7210,29 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7285,28 +7281,28 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7314,7 +7310,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7337,19 +7333,19 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7398,7 +7394,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7410,13 +7406,13 @@
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7427,7 +7423,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7438,7 +7434,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7450,13 +7446,13 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7507,25 +7503,25 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7536,11 +7532,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7559,16 +7555,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L56" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7618,7 +7614,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7630,13 +7626,13 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7647,11 +7643,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7664,25 +7660,25 @@
         <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7731,7 +7727,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7743,13 +7739,13 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7760,7 +7756,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7771,7 +7767,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7783,17 +7779,17 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7818,49 +7814,49 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7871,7 +7867,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7882,7 +7878,7 @@
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>74</v>
@@ -7894,17 +7890,17 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -7953,25 +7949,25 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -7982,7 +7978,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8005,17 +8001,17 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8064,7 +8060,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8073,19 +8069,19 @@
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>74</v>
@@ -8093,7 +8089,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8104,7 +8100,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8116,19 +8112,19 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8177,28 +8173,28 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI61" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AI61" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="AJ61" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8206,7 +8202,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8229,17 +8225,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8288,7 +8284,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8300,13 +8296,13 @@
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
